--- a/Interviews_Columns/Interview 0.xlsx
+++ b/Interviews_Columns/Interview 0.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Think\LMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\LMS\_Project\GIT\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4596"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>sheet_id</t>
   </si>
@@ -47,9 +41,6 @@
     <t>number_exercises</t>
   </si>
   <si>
-    <t>inverview0</t>
-  </si>
-  <si>
     <t>end_date</t>
   </si>
   <si>
@@ -108,12 +99,18 @@
   </si>
   <si>
     <t>unix time</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,12 +128,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,10 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,198 +446,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Interviews_Columns/Interview 0.xlsx
+++ b/Interviews_Columns/Interview 0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>sheet_id</t>
   </si>
@@ -53,9 +53,6 @@
     <t>time spend on a single sheet</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>student_id</t>
   </si>
   <si>
@@ -105,6 +102,30 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>number of exercises inside the sheet</t>
+  </si>
+  <si>
+    <t>Expiration Date/Time for the sheet</t>
+  </si>
+  <si>
+    <t>array of students results</t>
+  </si>
+  <si>
+    <t>student name</t>
+  </si>
+  <si>
+    <t>number of tries of exercise</t>
+  </si>
+  <si>
+    <t>exercise_id</t>
+  </si>
+  <si>
+    <t>exercise id</t>
   </si>
 </sst>
 </file>
@@ -128,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -160,12 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,36 +476,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -487,20 +523,26 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -510,11 +552,17 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -524,11 +572,17 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -538,30 +592,39 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -572,50 +635,53 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
